--- a/biology/Zoologie/Haliotis_discus/Haliotis_discus.xlsx
+++ b/biology/Zoologie/Haliotis_discus/Haliotis_discus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haliotis discus est une espèce de mollusques gastéropodes appartenant à la famille des Haliotididae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Haliotis discus mesure jusqu'à 225 mm et vit entre l'estran et 20 m de profondeur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Haliotis discus mesure jusqu'à 225 mm et vit entre l'estran et 20 m de profondeur.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit dans les eaux autour du Japon, de la Corée et du nord de la Chine.
 </t>
@@ -573,13 +589,15 @@
           <t>Liste des taxons de rang inférieur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (4 mars 2011)[2], il y a 2 sous-espèces:
-Haliotis discus discus Reeve, 1846 - Kuro Abalone littéralement ormeau noir en Japonais [3]
-Haliotis discus hannai Ino, 1953 - Ezo Abalone littéralement ormeau du Nord du Japon [3]
-Les Japonais pêchent et élèvent cette espèce pour la manger, mais les deux sous-espèces sont souvent confondues sur le marché[3].
-Différenciation des sous-espèces</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (4 mars 2011), il y a 2 sous-espèces:
+Haliotis discus discus Reeve, 1846 - Kuro Abalone littéralement ormeau noir en Japonais 
+Haliotis discus hannai Ino, 1953 - Ezo Abalone littéralement ormeau du Nord du Japon 
+Les Japonais pêchent et élèvent cette espèce pour la manger, mais les deux sous-espèces sont souvent confondues sur le marché.
+</t>
         </is>
       </c>
     </row>
